--- a/data/trans_orig/P70D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Provincia-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>8.343139089113034</v>
+        <v>8.343139089113036</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>8.315062490177118</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.33104963875941</v>
+        <v>8.331049638759408</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.250176891252439</v>
+        <v>8.243547827174325</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.229293044930294</v>
+        <v>8.227771440533362</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.260119535237816</v>
+        <v>8.262944933502526</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.452570193669375</v>
+        <v>8.439382924224779</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.39086470927311</v>
+        <v>8.399332059911718</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.400019948996984</v>
+        <v>8.400189034131524</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>9.054876711411529</v>
+        <v>9.054876711411531</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.952303300737324</v>
+        <v>8.952303300737322</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>9.013148018201798</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.793914431218001</v>
+        <v>8.775731155271883</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.725567248979742</v>
+        <v>8.701864472706156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.842179430960931</v>
+        <v>8.83849851740437</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.245522928667848</v>
+        <v>9.241767904839557</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.155461131484572</v>
+        <v>9.166731988249788</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.147207357424399</v>
+        <v>9.146573014347158</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>8.974817655358205</v>
+        <v>8.974817655358203</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>8.663803075353602</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.835522708983929</v>
+        <v>8.83552270898393</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.670513085779103</v>
+        <v>8.70646660801278</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.374806489861434</v>
+        <v>8.360758568119321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.631152689866356</v>
+        <v>8.63121177037841</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.179880786582229</v>
+        <v>9.194529725858908</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.934117330074033</v>
+        <v>8.919723922696955</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.025631764833967</v>
+        <v>9.004925710162043</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>8.396157772411142</v>
+        <v>8.39615777241114</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>8.270492411883742</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.166294445489939</v>
+        <v>8.153482407991509</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.053086522056818</v>
+        <v>8.044847803464517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.175773837704245</v>
+        <v>8.171040190003749</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.616489587037174</v>
+        <v>8.613195669744915</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.470009743885445</v>
+        <v>8.462809224485149</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.494115465859645</v>
+        <v>8.503988703854679</v>
       </c>
     </row>
     <row r="16">
@@ -783,10 +783,10 @@
         <v>8.525015009680361</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>8.458110223261452</v>
+        <v>8.45811022326145</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8.493836295009176</v>
+        <v>8.493836295009178</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.368090153022798</v>
+        <v>8.347818785729803</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.310120841914193</v>
+        <v>8.312163780810071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.382866758784795</v>
+        <v>8.395517224784671</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.681448137039187</v>
+        <v>8.661466611817126</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.596215226541311</v>
+        <v>8.59365776627231</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.605707607175956</v>
+        <v>8.601836818794219</v>
       </c>
     </row>
     <row r="19">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>8.732366267900426</v>
+        <v>8.732366267900428</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>8.716323208482867</v>
+        <v>8.716323208482871</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8.726090759534825</v>
+        <v>8.726090759534824</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.372554228772609</v>
+        <v>8.362697740570535</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8.395880077178218</v>
+        <v>8.396454572953878</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.499612645508202</v>
+        <v>8.487537211156578</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.995664399603712</v>
+        <v>8.986231321804752</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.986456827528377</v>
+        <v>8.980074165651761</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.918933456426654</v>
+        <v>8.918354106728865</v>
       </c>
     </row>
     <row r="22">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.71034203657543</v>
+        <v>8.69629463398751</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.677330829000592</v>
+        <v>8.68476082455758</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.721236521838319</v>
+        <v>8.725456494990222</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.941197587801813</v>
+        <v>8.943396512052274</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.882940513530338</v>
+        <v>8.888892080698083</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.885722402009739</v>
+        <v>8.886265442414784</v>
       </c>
     </row>
     <row r="25">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>8.924896557898686</v>
+        <v>8.931248583532229</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.550854333497188</v>
+        <v>8.547585870906596</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8.816432337505471</v>
+        <v>8.810848098552897</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.159491382064024</v>
+        <v>9.170480558433106</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.824997133943366</v>
+        <v>8.839489866829524</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8.992165615438644</v>
+        <v>8.994244535180261</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.726226639381069</v>
+        <v>8.735413822451324</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.568784902495953</v>
+        <v>8.571813624679939</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8.679584446249322</v>
+        <v>8.675076416113621</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.854442119206722</v>
+        <v>8.856949262033721</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.700517081932713</v>
+        <v>8.696999056000921</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.773907301569235</v>
+        <v>8.769562548643771</v>
       </c>
     </row>
     <row r="31">
